--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H2">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I2">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J2">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>21.994833704032</v>
+        <v>26.83899455631277</v>
       </c>
       <c r="R2">
-        <v>197.953503336288</v>
+        <v>241.550951006815</v>
       </c>
       <c r="S2">
-        <v>0.001118548307799287</v>
+        <v>0.00126511310822557</v>
       </c>
       <c r="T2">
-        <v>0.001243150011665506</v>
+        <v>0.001315419975093532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H3">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I3">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J3">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>1035.479437380644</v>
+        <v>1715.522002840756</v>
       </c>
       <c r="R3">
-        <v>9319.314936425795</v>
+        <v>15439.69802556681</v>
       </c>
       <c r="S3">
-        <v>0.05265935573910498</v>
+        <v>0.08086477936755433</v>
       </c>
       <c r="T3">
-        <v>0.05852539246173819</v>
+        <v>0.08408034457156717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H4">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I4">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J4">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>653.9330811673641</v>
+        <v>1265.586969817745</v>
       </c>
       <c r="R4">
-        <v>5885.397730506276</v>
+        <v>11390.28272835971</v>
       </c>
       <c r="S4">
-        <v>0.03325579775670873</v>
+        <v>0.05965613435169884</v>
       </c>
       <c r="T4">
-        <v>0.03696035752853385</v>
+        <v>0.0620283437527203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H5">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I5">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J5">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>231.048798736296</v>
+        <v>269.7220237987008</v>
       </c>
       <c r="R5">
-        <v>1386.292792417776</v>
+        <v>1618.332142792205</v>
       </c>
       <c r="S5">
-        <v>0.01174999758230343</v>
+        <v>0.01271392142387858</v>
       </c>
       <c r="T5">
-        <v>0.008705932817659029</v>
+        <v>0.008812991288553132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.573004</v>
+        <v>9.233028333333333</v>
       </c>
       <c r="H6">
-        <v>16.719012</v>
+        <v>27.699085</v>
       </c>
       <c r="I6">
-        <v>0.1383950099922425</v>
+        <v>0.2291653310312791</v>
       </c>
       <c r="J6">
-        <v>0.1494586813194652</v>
+        <v>0.2338715303104729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>778.906180010276</v>
+        <v>1584.003666506969</v>
       </c>
       <c r="R6">
-        <v>7010.155620092484</v>
+        <v>14256.03299856272</v>
       </c>
       <c r="S6">
-        <v>0.03961131060632608</v>
+        <v>0.0746653827799218</v>
       </c>
       <c r="T6">
-        <v>0.04402384849986865</v>
+        <v>0.07763443072253881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>58.181675</v>
       </c>
       <c r="I7">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J7">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>76.5413809289111</v>
+        <v>56.37506288031387</v>
       </c>
       <c r="R7">
-        <v>688.8724283601999</v>
+        <v>507.3755659228249</v>
       </c>
       <c r="S7">
-        <v>0.003892515545546477</v>
+        <v>0.002657358526500783</v>
       </c>
       <c r="T7">
-        <v>0.004326125847326906</v>
+        <v>0.002763027640783079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>58.181675</v>
       </c>
       <c r="I8">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J8">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>3603.43829497003</v>
@@ -948,10 +948,10 @@
         <v>32430.94465473027</v>
       </c>
       <c r="S8">
-        <v>0.1832530248391467</v>
+        <v>0.1698557303286282</v>
       </c>
       <c r="T8">
-        <v>0.2036666618491751</v>
+        <v>0.1766099956641504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>58.181675</v>
       </c>
       <c r="I9">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J9">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>2275.668083749697</v>
+        <v>2658.353868446227</v>
       </c>
       <c r="R9">
-        <v>20481.01275374728</v>
+        <v>23925.18481601604</v>
       </c>
       <c r="S9">
-        <v>0.1157292079787105</v>
+        <v>0.125307165222493</v>
       </c>
       <c r="T9">
-        <v>0.1286209681295138</v>
+        <v>0.1302899693982329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>58.181675</v>
       </c>
       <c r="I10">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J10">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>804.0430928104832</v>
+        <v>566.5486469678791</v>
       </c>
       <c r="R10">
-        <v>4824.2585568629</v>
+        <v>3399.291881807275</v>
       </c>
       <c r="S10">
-        <v>0.04088964949509958</v>
+        <v>0.02670547580397117</v>
       </c>
       <c r="T10">
-        <v>0.03029639273952742</v>
+        <v>0.0185116076913165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>58.181675</v>
       </c>
       <c r="I11">
-        <v>0.4816106055184604</v>
+        <v>0.4813596843119293</v>
       </c>
       <c r="J11">
-        <v>0.5201118596276919</v>
+        <v>0.4912450129048156</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>2710.570829236164</v>
+        <v>3327.185230974844</v>
       </c>
       <c r="R11">
-        <v>24395.13746312548</v>
+        <v>29944.6670787736</v>
       </c>
       <c r="S11">
-        <v>0.1378462076599572</v>
+        <v>0.1568339544303361</v>
       </c>
       <c r="T11">
-        <v>0.1532017110621486</v>
+        <v>0.1630704125103327</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H12">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I12">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J12">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>13.54527293213422</v>
+        <v>8.930331913569331</v>
       </c>
       <c r="R12">
-        <v>121.907456389208</v>
+        <v>80.372987222124</v>
       </c>
       <c r="S12">
-        <v>0.0006888454953010532</v>
+        <v>0.0004209501939782739</v>
       </c>
       <c r="T12">
-        <v>0.0007655800643997735</v>
+        <v>0.0004376891600270963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H13">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I13">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J13">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>637.68845828384</v>
+        <v>570.8179886640253</v>
       </c>
       <c r="R13">
-        <v>5739.19612455456</v>
+        <v>5137.361897976228</v>
       </c>
       <c r="S13">
-        <v>0.03242967669202104</v>
+        <v>0.02690672030782007</v>
       </c>
       <c r="T13">
-        <v>0.03604220995811359</v>
+        <v>0.02797665847190844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H14">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I14">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J14">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>402.7173918636934</v>
+        <v>421.1078653578906</v>
       </c>
       <c r="R14">
-        <v>3624.456526773241</v>
+        <v>3789.970788221015</v>
       </c>
       <c r="S14">
-        <v>0.02048021200123466</v>
+        <v>0.0198498151383189</v>
       </c>
       <c r="T14">
-        <v>0.02276162380356974</v>
+        <v>0.02063913745347352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H15">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I15">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J15">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>142.2888248048526</v>
+        <v>89.746551118678</v>
       </c>
       <c r="R15">
-        <v>853.7329488291159</v>
+        <v>538.479306712068</v>
       </c>
       <c r="S15">
-        <v>0.007236104911993091</v>
+        <v>0.004230394622274336</v>
       </c>
       <c r="T15">
-        <v>0.005361451590443191</v>
+        <v>0.002932410049603103</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.432072333333333</v>
+        <v>3.072172</v>
       </c>
       <c r="H16">
-        <v>10.296217</v>
+        <v>9.216516</v>
       </c>
       <c r="I16">
-        <v>0.08522902277941405</v>
+        <v>0.07625183070469947</v>
       </c>
       <c r="J16">
-        <v>0.09204246132481154</v>
+        <v>0.07781775827797052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>479.6806804150187</v>
+        <v>527.0569456146346</v>
       </c>
       <c r="R16">
-        <v>4317.126123735168</v>
+        <v>4743.512510531712</v>
       </c>
       <c r="S16">
-        <v>0.0243941836788642</v>
+        <v>0.02484395044230788</v>
       </c>
       <c r="T16">
-        <v>0.02711159590828526</v>
+        <v>0.02583186314295835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.9426925</v>
+        <v>2.432257</v>
       </c>
       <c r="H17">
-        <v>17.885385</v>
+        <v>4.864514</v>
       </c>
       <c r="I17">
-        <v>0.2220748483035455</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J17">
-        <v>0.1598854081204645</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>35.29389794154</v>
+        <v>7.070197342174332</v>
       </c>
       <c r="R17">
-        <v>211.76338764924</v>
+        <v>42.42118405304599</v>
       </c>
       <c r="S17">
-        <v>0.001794872848295888</v>
+        <v>0.0003332687935294686</v>
       </c>
       <c r="T17">
-        <v>0.001329876225424808</v>
+        <v>0.0002310140889030139</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.9426925</v>
+        <v>2.432257</v>
       </c>
       <c r="H18">
-        <v>17.885385</v>
+        <v>4.864514</v>
       </c>
       <c r="I18">
-        <v>0.2220748483035455</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J18">
-        <v>0.1598854081204645</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>1661.576808229117</v>
+        <v>451.9200255239603</v>
       </c>
       <c r="R18">
-        <v>9969.460849374706</v>
+        <v>2711.520153143762</v>
       </c>
       <c r="S18">
-        <v>0.08449956713164498</v>
+        <v>0.02130221186044842</v>
       </c>
       <c r="T18">
-        <v>0.06260831539891744</v>
+        <v>0.01476619221512958</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.9426925</v>
+        <v>2.432257</v>
       </c>
       <c r="H19">
-        <v>17.885385</v>
+        <v>4.864514</v>
       </c>
       <c r="I19">
-        <v>0.2220748483035455</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J19">
-        <v>0.1598854081204645</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>1049.330389940018</v>
+        <v>333.3936229064606</v>
       </c>
       <c r="R19">
-        <v>6295.982339640105</v>
+        <v>2000.361737438764</v>
       </c>
       <c r="S19">
-        <v>0.05336374658629995</v>
+        <v>0.01571521770880084</v>
       </c>
       <c r="T19">
-        <v>0.03953883304440935</v>
+        <v>0.01089341928016469</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.9426925</v>
+        <v>2.432257</v>
       </c>
       <c r="H20">
-        <v>17.885385</v>
+        <v>4.864514</v>
       </c>
       <c r="I20">
-        <v>0.2220748483035455</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J20">
-        <v>0.1598854081204645</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>370.751278770495</v>
+        <v>71.05288284128049</v>
       </c>
       <c r="R20">
-        <v>1483.00511508198</v>
+        <v>284.211531365122</v>
       </c>
       <c r="S20">
-        <v>0.01885457380871842</v>
+        <v>0.003349228797342437</v>
       </c>
       <c r="T20">
-        <v>0.009313287186346091</v>
+        <v>0.001547737750364128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.9426925</v>
+        <v>2.432257</v>
       </c>
       <c r="H21">
-        <v>17.885385</v>
+        <v>4.864514</v>
       </c>
       <c r="I21">
-        <v>0.2220748483035455</v>
+        <v>0.06036903174507163</v>
       </c>
       <c r="J21">
-        <v>0.1598854081204645</v>
+        <v>0.041072523998418</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>1249.867836840157</v>
+        <v>417.2741452528746</v>
       </c>
       <c r="R21">
-        <v>7499.207021040945</v>
+        <v>2503.644871517248</v>
       </c>
       <c r="S21">
-        <v>0.06356208792858621</v>
+        <v>0.01966910458495047</v>
       </c>
       <c r="T21">
-        <v>0.04709509626536684</v>
+        <v>0.01363416066385659</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.927161333333333</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H22">
-        <v>8.781483999999999</v>
+        <v>18.475392</v>
       </c>
       <c r="I22">
-        <v>0.0726905134063375</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J22">
-        <v>0.07850158960756667</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>11.55255347951289</v>
+        <v>17.90170849736533</v>
       </c>
       <c r="R22">
-        <v>103.972981315616</v>
+        <v>161.115376476288</v>
       </c>
       <c r="S22">
-        <v>0.0005875056533344503</v>
+        <v>0.0008438351158099927</v>
       </c>
       <c r="T22">
-        <v>0.0006529513787681029</v>
+        <v>0.0008773899818164839</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.927161333333333</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H23">
-        <v>8.781483999999999</v>
+        <v>18.475392</v>
       </c>
       <c r="I23">
-        <v>0.0726905134063375</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J23">
-        <v>0.07850158960756667</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>543.8746088397523</v>
+        <v>1144.259512078037</v>
       </c>
       <c r="R23">
-        <v>4894.871479557772</v>
+        <v>10298.33560870233</v>
       </c>
       <c r="S23">
-        <v>0.02765876894359897</v>
+        <v>0.05393710650763656</v>
       </c>
       <c r="T23">
-        <v>0.0307398426113023</v>
+        <v>0.05608190037522089</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.927161333333333</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H24">
-        <v>8.781483999999999</v>
+        <v>18.475392</v>
       </c>
       <c r="I24">
-        <v>0.0726905134063375</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J24">
-        <v>0.07850158960756667</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>343.4714257841258</v>
+        <v>844.1511832421544</v>
       </c>
       <c r="R24">
-        <v>3091.242832057132</v>
+        <v>7597.360649179391</v>
       </c>
       <c r="S24">
-        <v>0.0174672555954726</v>
+        <v>0.03979086194913305</v>
       </c>
       <c r="T24">
-        <v>0.01941303638463203</v>
+        <v>0.04137313438123528</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.927161333333333</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H25">
-        <v>8.781483999999999</v>
+        <v>18.475392</v>
       </c>
       <c r="I25">
-        <v>0.0726905134063375</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J25">
-        <v>0.07850158960756667</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>121.3559347479386</v>
+        <v>179.905586076736</v>
       </c>
       <c r="R25">
-        <v>728.1356084876319</v>
+        <v>1079.433516460416</v>
       </c>
       <c r="S25">
-        <v>0.006171561798570169</v>
+        <v>0.008480232547874954</v>
       </c>
       <c r="T25">
-        <v>0.00457269901734311</v>
+        <v>0.005878297739748595</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.927161333333333</v>
+        <v>6.158463999999999</v>
       </c>
       <c r="H26">
-        <v>8.781483999999999</v>
+        <v>18.475392</v>
       </c>
       <c r="I26">
-        <v>0.0726905134063375</v>
+        <v>0.1528541222070204</v>
       </c>
       <c r="J26">
-        <v>0.07850158960756667</v>
+        <v>0.1559931745083229</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>409.112222496243</v>
+        <v>1056.536295987882</v>
       </c>
       <c r="R26">
-        <v>3682.010002466188</v>
+        <v>9508.826663890943</v>
       </c>
       <c r="S26">
-        <v>0.02080542141536131</v>
+        <v>0.04980208608656585</v>
       </c>
       <c r="T26">
-        <v>0.02312306021552114</v>
+        <v>0.05178245203030164</v>
       </c>
     </row>
   </sheetData>
